--- a/data/trans_dic/VUL_INSOM-Clase-trans_dic.xlsx
+++ b/data/trans_dic/VUL_INSOM-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -549,32 +550,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>2,64%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,02</t>
+          <t>2,61; 5,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,39; 4,84</t>
+          <t>0,84; 3,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,59; 6,41</t>
+          <t>3,19; 6,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 5,56</t>
+          <t>2,17; 5,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,25; 4,39</t>
+          <t>3,19; 5,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,01; 4,69</t>
+          <t>1,8; 3,9</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>2,4%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,97</t>
+          <t>2,1; 6,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 5,39</t>
+          <t>0,72; 3,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 5,97</t>
+          <t>3,91; 7,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,81; 7,0</t>
+          <t>1,7; 4,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,92; 4,45</t>
+          <t>3,57; 6,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,46; 5,85</t>
+          <t>1,53; 3,56</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>2,76%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,44</t>
+          <t>4,58; 8,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,79; 6,46</t>
+          <t>0,24; 2,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,85; 13,96</t>
+          <t>5,06; 11,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,77; 10,05</t>
+          <t>3,74; 12,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,94; 5,17</t>
+          <t>5,24; 8,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,48; 6,96</t>
+          <t>1,53; 4,43</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>4,29%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 5,32</t>
+          <t>3,44; 6,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,19</t>
+          <t>1,98; 5,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,48; 7,1</t>
+          <t>7,15; 10,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,39; 10,67</t>
+          <t>3,44; 7,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,16; 5,57</t>
+          <t>5,91; 8,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,84; 7,91</t>
+          <t>3,06; 5,72</t>
         </is>
       </c>
     </row>
@@ -921,32 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>4,3%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,06</t>
+          <t>2,76; 7,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,78; 6,58</t>
+          <t>0,8; 3,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,2; 10,28</t>
+          <t>7,23; 11,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,02; 10,96</t>
+          <t>4,02; 10,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,79</t>
+          <t>6,03; 9,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,87; 8,52</t>
+          <t>2,83; 6,57</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>1,57%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,23%</t>
-        </is>
-      </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>4,47%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,43; 3,82</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>0; 11,83</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,47; 2,74</t>
-        </is>
-      </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,33</t>
+          <t>10,35; 15,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,93; 13,31</t>
+          <t>0,0; 39,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,97</t>
+          <t>7,86; 12,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,39; 9,4</t>
+          <t>0,0; 21,19</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>3,32%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,15</t>
+          <t>3,86; 5,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,49; 4,68</t>
+          <t>1,46; 2,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,23; 6,24</t>
+          <t>7,21; 9,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,88; 8,49</t>
+          <t>3,82; 5,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,1; 4,29</t>
+          <t>5,87; 7,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,53; 6,44</t>
+          <t>2,79; 3,93</t>
         </is>
       </c>
     </row>
@@ -1171,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vulnerabilidad ante el insomnio</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5353</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4889</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6478</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>10226</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11830</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>15115</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3795; 7607</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2479; 9979</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4572; 8807</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5998; 15948</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9194; 14977</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>10316; 22324</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3052</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3207</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5938</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>8990</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>10205</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1702; 4932</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1400; 6761</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4261; 8501</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3927; 11362</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>6775; 12255</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6502; 15168</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10046</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1565</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4818</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5713</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>14864</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7278</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7452; 13043</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>426; 4142</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3200; 7153</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3093; 10057</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>11837; 18590</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4021; 11667</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>8134</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>10186</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>15929</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>16614</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>24063</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>26800</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>5854; 10868</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>6108; 17131</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>12700; 19516</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>10879; 24138</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>20539; 28343</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>19091; 35747</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3518</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2785</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>12141</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>10368</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>15659</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>13153</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2105; 5699</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1201; 5271</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>9588; 15143</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>6231; 15902</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>12599; 19151</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>8666; 20115</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>704</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>15104</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>929</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>15808</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>929</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>195; 1719</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1106</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>12200; 18439</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4526</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>12799; 19656</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4403</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>30807</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>22632</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>60407</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>50848</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>91214</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>73480</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>26251; 36370</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>16698; 31072</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>53649; 66990</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>41004; 63048</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>83561; 99981</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>61756; 86899</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/VUL_INSOM-Clase-trans_dic.xlsx
+++ b/data/trans_dic/VUL_INSOM-Clase-trans_dic.xlsx
@@ -1045,7 +1045,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 1106</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">

--- a/data/trans_dic/VUL_INSOM-Clase-trans_dic.xlsx
+++ b/data/trans_dic/VUL_INSOM-Clase-trans_dic.xlsx
@@ -522,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante el insomnio</t>
+          <t>Vulnerabilidad ante el insomnio (tasa de respuesta: 99,52%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1204,7 +1204,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante el insomnio</t>
+          <t>Vulnerabilidad ante el insomnio (tasa de respuesta: 99,52%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/VUL_INSOM-Clase-trans_dic.xlsx
+++ b/data/trans_dic/VUL_INSOM-Clase-trans_dic.xlsx
@@ -602,7 +602,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,24</t>
+          <t>2,75; 5,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,19; 6,15</t>
+          <t>2,58; 5,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -660,7 +660,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,19; 5,19</t>
+          <t>2,88; 4,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,1; 6,08</t>
+          <t>2,27; 6,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,91; 7,8</t>
+          <t>3,34; 6,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,57; 6,45</t>
+          <t>3,3; 5,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,58; 8,01</t>
+          <t>4,16; 7,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,06; 11,32</t>
+          <t>4,42; 9,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,24; 8,23</t>
+          <t>4,64; 7,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,44; 6,39</t>
+          <t>3,34; 5,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -890,7 +890,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,15; 10,98</t>
+          <t>6,91; 10,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,91; 8,15</t>
+          <t>5,55; 7,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,76; 7,46</t>
+          <t>1,95; 5,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,23; 11,42</t>
+          <t>8,19; 13,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,03; 9,16</t>
+          <t>6,15; 9,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,82</t>
+          <t>0,39; 3,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,35; 15,64</t>
+          <t>9,18; 14,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,86; 12,07</t>
+          <t>6,45; 10,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,86; 5,35</t>
+          <t>3,54; 4,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,21; 9,01</t>
+          <t>6,78; 8,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,87; 7,02</t>
+          <t>5,38; 6,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5353</t>
+          <t>6455</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6478</t>
+          <t>6036</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11830</t>
+          <t>12492</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3795; 7607</t>
+          <t>4465; 9126</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4572; 8807</t>
+          <t>4352; 8793</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9194; 14977</t>
+          <t>9519; 15798</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3052</t>
+          <t>3452</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>6084</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8990</t>
+          <t>9536</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1702; 4932</t>
+          <t>2048; 5520</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4261; 8501</t>
+          <t>4094; 8475</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6775; 12255</t>
+          <t>7024; 12157</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10046</t>
+          <t>8453</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4818</t>
+          <t>4154</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14864</t>
+          <t>12607</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7452; 13043</t>
+          <t>6386; 11034</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3200; 7153</t>
+          <t>2740; 6050</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>11837; 18590</t>
+          <t>9991; 15415</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8134</t>
+          <t>7642</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>15929</t>
+          <t>15660</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>24063</t>
+          <t>23302</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5854; 10868</t>
+          <t>5689; 10106</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12700; 19516</t>
+          <t>12653; 19116</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20539; 28343</t>
+          <t>19613; 27510</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3518</t>
+          <t>2429</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12141</t>
+          <t>12923</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15659</t>
+          <t>15352</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2105; 5699</t>
+          <t>1438; 3979</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1842,7 +1842,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>9588; 15143</t>
+          <t>10263; 16449</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>12599; 19151</t>
+          <t>12249; 18632</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>816</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>15104</t>
+          <t>13872</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>15808</t>
+          <t>14688</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>195; 1719</t>
+          <t>216; 2055</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>12200; 18439</t>
+          <t>11238; 17135</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>12799; 19656</t>
+          <t>11460; 17832</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>30807</t>
+          <t>29247</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>60407</t>
+          <t>58730</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -2050,7 +2050,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>91214</t>
+          <t>87977</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>26251; 36370</t>
+          <t>24945; 34365</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>53649; 66990</t>
+          <t>53170; 65509</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>83561; 99981</t>
+          <t>80128; 96049</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">

--- a/data/trans_dic/VUL_INSOM-Clase-trans_dic.xlsx
+++ b/data/trans_dic/VUL_INSOM-Clase-trans_dic.xlsx
@@ -550,32 +550,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -602,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,65%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>3,98%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,65%</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>3,7%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>3,57%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,7%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>2,64%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>3,77%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,64%</t>
         </is>
       </c>
     </row>
@@ -640,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,84; 3,38</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>2,75; 5,63</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,84; 3,38</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>2,17; 5,76</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>2,58; 5,21</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>2,17; 5,76</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>1,8; 3,9</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>2,88; 4,77</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>1,8; 3,9</t>
         </is>
       </c>
     </row>
@@ -682,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,64%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>3,82%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,64%</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>3,04%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>4,97%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,04%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>2,4%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>4,48%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,4%</t>
         </is>
       </c>
     </row>
@@ -720,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,72; 3,46</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>2,27; 6,11</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,72; 3,46</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>1,7; 4,93</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>3,34; 6,92</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>1,7; 4,93</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>1,53; 3,56</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>3,3; 5,71</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>1,53; 3,56</t>
         </is>
       </c>
     </row>
@@ -762,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,87%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>5,51%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,87%</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>6,9%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>6,71%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,9%</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>2,76%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>5,86%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2,76%</t>
         </is>
       </c>
     </row>
@@ -800,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,24; 2,29</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>4,16; 7,2</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,24; 2,29</t>
-        </is>
-      </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>3,74; 12,15</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>4,42; 9,77</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>3,74; 12,15</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>1,53; 4,43</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>4,64; 7,16</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,53; 4,43</t>
         </is>
       </c>
     </row>
@@ -842,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>3,3%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>4,48%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,3%</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>5,25%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>8,56%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,25%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>4,29%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>6,59%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>4,29%</t>
         </is>
       </c>
     </row>
@@ -880,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>1,98; 5,55</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>3,34; 5,93</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,98; 5,55</t>
-        </is>
-      </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>3,44; 7,63</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>6,91; 10,44</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>3,44; 7,63</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>3,06; 5,72</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>5,55; 7,78</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3,06; 5,72</t>
         </is>
       </c>
     </row>
@@ -922,32 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1,85%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>3,29%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,85%</t>
-        </is>
-      </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>6,69%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>10,32%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>6,69%</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>4,3%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>7,71%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>4,3%</t>
         </is>
       </c>
     </row>
@@ -960,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0,8; 3,49</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>1,95; 5,39</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,8; 3,49</t>
-        </is>
-      </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>4,02; 10,25</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>8,19; 13,13</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>4,02; 10,25</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>2,83; 6,57</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>6,15; 9,36</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>2,83; 6,57</t>
         </is>
       </c>
     </row>
@@ -1002,32 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>1,48%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>8,13%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>11,33%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>8,13%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>4,47%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>8,27%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>4,47%</t>
         </is>
       </c>
     </row>
@@ -1040,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>0,39; 3,72</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>0,0; 39,58</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>9,18; 14,0</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 39,58</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>0,0; 21,19</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>6,45; 10,04</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 21,19</t>
         </is>
       </c>
     </row>
@@ -1082,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>1,98%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>4,15%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1,98%</t>
-        </is>
-      </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>4,74%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>7,49%</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>4,74%</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>3,32%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>5,91%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>3,32%</t>
         </is>
       </c>
     </row>
@@ -1120,32 +1120,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>1,46; 2,72</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
           <t>3,54; 4,87</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>1,46; 2,72</t>
-        </is>
-      </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>3,82; 5,88</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>6,78; 8,36</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>3,82; 5,88</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>2,79; 3,93</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>5,38; 6,45</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>2,79; 3,93</t>
         </is>
       </c>
     </row>
@@ -1232,32 +1232,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1284,32 +1284,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>36</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>37</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>73</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>32</t>
         </is>
       </c>
     </row>
@@ -1322,32 +1322,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>4889</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>6455</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>4889</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>10226</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>6036</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>10226</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>15115</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>12492</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>15115</t>
         </is>
       </c>
     </row>
@@ -1360,32 +1360,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>2479; 9979</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>4465; 9126</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2479; 9979</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>5998; 15948</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>4352; 8793</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>5998; 15948</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>10316; 22324</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>9519; 15798</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>10316; 22324</t>
         </is>
       </c>
     </row>
@@ -1402,32 +1402,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>35</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>53</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>23</t>
         </is>
       </c>
     </row>
@@ -1440,32 +1440,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>3207</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>3452</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3207</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>6998</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>6084</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6998</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>10205</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>9536</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>10205</t>
         </is>
       </c>
     </row>
@@ -1478,32 +1478,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>1400; 6761</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>2048; 5520</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1400; 6761</t>
-        </is>
-      </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>3927; 11362</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>4094; 8475</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>3927; 11362</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>6502; 15168</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>7024; 12157</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>6502; 15168</t>
         </is>
       </c>
     </row>
@@ -1520,32 +1520,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>56</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>82</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>17</t>
         </is>
       </c>
     </row>
@@ -1558,32 +1558,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>1565</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>8453</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1565</t>
-        </is>
-      </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>5713</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>4154</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>5713</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>7278</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>12607</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>7278</t>
         </is>
       </c>
     </row>
@@ -1596,32 +1596,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>426; 4142</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>6386; 11034</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>426; 4142</t>
-        </is>
-      </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>3093; 10057</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>2740; 6050</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3093; 10057</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>4021; 11667</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>9991; 15415</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>4021; 11667</t>
         </is>
       </c>
     </row>
@@ -1638,32 +1638,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>47</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>96</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>143</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>48</t>
         </is>
       </c>
     </row>
@@ -1676,32 +1676,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>10186</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>7642</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>10186</t>
-        </is>
-      </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>16614</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>15660</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>16614</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>26800</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>23302</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>26800</t>
         </is>
       </c>
     </row>
@@ -1714,32 +1714,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>6108; 17131</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>5689; 10106</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>6108; 17131</t>
-        </is>
-      </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>10879; 24138</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>12653; 19116</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>10879; 24138</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>19091; 35747</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>19613; 27510</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>19091; 35747</t>
         </is>
       </c>
     </row>
@@ -1756,32 +1756,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>73</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>90</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>28</t>
         </is>
       </c>
     </row>
@@ -1794,32 +1794,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>2785</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
           <t>2429</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>2785</t>
-        </is>
-      </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>10368</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>12923</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>10368</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>13153</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>15352</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>13153</t>
         </is>
       </c>
     </row>
@@ -1832,32 +1832,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>1201; 5271</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
           <t>1438; 3979</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>1201; 5271</t>
-        </is>
-      </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
+          <t>6231; 15902</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>10263; 16449</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>6231; 15902</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
+          <t>8666; 20115</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>12249; 18632</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>8666; 20115</t>
         </is>
       </c>
     </row>
@@ -1874,32 +1874,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>86</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>90</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -1912,32 +1912,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
           <t>816</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
+          <t>929</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>13872</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>929</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
+      <c r="H20" s="2" t="inlineStr">
         <is>
           <t>14688</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>929</t>
         </is>
       </c>
     </row>
@@ -1950,32 +1950,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
           <t>216; 2055</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
+          <t>0; 4526</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
           <t>11238; 17135</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>0; 4526</t>
-        </is>
-      </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
+          <t>0; 4403</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>11460; 17832</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>0; 4403</t>
         </is>
       </c>
     </row>
@@ -1992,32 +1992,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
           <t>178</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>353</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>531</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>149</t>
         </is>
       </c>
     </row>
@@ -2030,32 +2030,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>22632</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
           <t>29247</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>22632</t>
-        </is>
-      </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
+          <t>50848</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
           <t>58730</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>50848</t>
-        </is>
-      </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
+          <t>73480</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>87977</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>73480</t>
         </is>
       </c>
     </row>
@@ -2068,32 +2068,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>16698; 31072</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
           <t>24945; 34365</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>16698; 31072</t>
-        </is>
-      </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
+          <t>41004; 63048</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
           <t>53170; 65509</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>41004; 63048</t>
-        </is>
-      </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
+          <t>61756; 86899</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>80128; 96049</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>61756; 86899</t>
         </is>
       </c>
     </row>
